--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BrassA-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BrassA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.010127284223263</v>
+        <v>1.010127284223264</v>
       </c>
       <c r="D13">
         <v>1.006881331918</v>
@@ -1078,7 +1078,7 @@
         <v>0.9844116600315139</v>
       </c>
       <c r="G13">
-        <v>1.010127284223263</v>
+        <v>1.010127284223264</v>
       </c>
       <c r="H13">
         <v>1.006881331918</v>
@@ -1099,7 +1099,7 @@
         <v>1.010128672423575</v>
       </c>
       <c r="N13">
-        <v>0.9966567526695028</v>
+        <v>0.9966567526695027</v>
       </c>
       <c r="O13">
         <v>0.9969631123984457</v>
@@ -1190,7 +1190,7 @@
         <v>0.9673104940917976</v>
       </c>
       <c r="K15">
-        <v>0.9261600377335841</v>
+        <v>0.9261600377335842</v>
       </c>
       <c r="L15">
         <v>1.068739909352108</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>1.019348249304016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.91528448868924</v>
+      </c>
+      <c r="D16">
+        <v>1.130738473172443</v>
+      </c>
+      <c r="E16">
+        <v>1.183960349202367</v>
+      </c>
+      <c r="F16">
+        <v>0.9949748176569884</v>
+      </c>
+      <c r="G16">
+        <v>1.91528448868924</v>
+      </c>
+      <c r="H16">
+        <v>1.130738473172443</v>
+      </c>
+      <c r="I16">
+        <v>0.9930788932318985</v>
+      </c>
+      <c r="J16">
+        <v>0.6005972044409383</v>
+      </c>
+      <c r="K16">
+        <v>1.17902922840198</v>
+      </c>
+      <c r="L16">
+        <v>0.9894688374312056</v>
+      </c>
+      <c r="M16">
+        <v>1.91528448868924</v>
+      </c>
+      <c r="N16">
+        <v>1.157349411187405</v>
+      </c>
+      <c r="O16">
+        <v>1.30623953218026</v>
+      </c>
+      <c r="P16">
+        <v>1.123391536528383</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.91528448868924</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.010127284223264</v>
+        <v>1.010127284223263</v>
       </c>
       <c r="D13">
         <v>1.006881331918</v>
@@ -1081,7 +1081,7 @@
         <v>0.9844116600315139</v>
       </c>
       <c r="G13">
-        <v>1.010127284223264</v>
+        <v>1.010127284223263</v>
       </c>
       <c r="H13">
         <v>1.006881331918</v>
@@ -1102,7 +1102,7 @@
         <v>1.010128672423575</v>
       </c>
       <c r="N13">
-        <v>0.9966567526695027</v>
+        <v>0.9966567526695028</v>
       </c>
       <c r="O13">
         <v>0.9969631123984457</v>
@@ -1193,7 +1193,7 @@
         <v>0.9673104940917976</v>
       </c>
       <c r="K15">
-        <v>0.9261600377335842</v>
+        <v>0.9261600377335841</v>
       </c>
       <c r="L15">
         <v>1.068739909352108</v>

--- a/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BrassA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.009159999999999956</v>
+        <v>1.91528448868924</v>
       </c>
       <c r="D10">
-        <v>0.06573600000000011</v>
+        <v>1.130738473172443</v>
       </c>
       <c r="E10">
-        <v>4.645183999999989</v>
+        <v>1.183960349202367</v>
       </c>
       <c r="F10">
-        <v>0.7127800000000021</v>
+        <v>0.9949748176569884</v>
       </c>
       <c r="G10">
-        <v>0.009159999999999956</v>
+        <v>1.91528448868924</v>
       </c>
       <c r="H10">
-        <v>0.06573600000000011</v>
+        <v>1.130738473172443</v>
       </c>
       <c r="I10">
-        <v>1.586959999999998</v>
+        <v>0.9930788932318985</v>
       </c>
       <c r="J10">
-        <v>1.310192000000003</v>
+        <v>0.6005972044409383</v>
       </c>
       <c r="K10">
-        <v>0.4104959999999994</v>
+        <v>1.17902922840198</v>
       </c>
       <c r="L10">
-        <v>0.4427840000000011</v>
+        <v>0.9894688374312056</v>
       </c>
       <c r="M10">
-        <v>0.009159999999999956</v>
+        <v>1.91528448868924</v>
       </c>
       <c r="N10">
-        <v>2.355459999999995</v>
+        <v>1.157349411187405</v>
       </c>
       <c r="O10">
-        <v>1.358214999999998</v>
+        <v>1.30623953218026</v>
       </c>
       <c r="P10">
-        <v>1.147911499999999</v>
+        <v>1.123391536528383</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.406265451253938</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.09228280080040317</v>
       </c>
       <c r="E11">
-        <v>7.656125000000013</v>
+        <v>0.9151446579131717</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>1.156369383058451</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.406265451253938</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.09228280080040317</v>
       </c>
       <c r="I11">
-        <v>2.397650000000005</v>
+        <v>0.8229085247312959</v>
       </c>
       <c r="J11">
-        <v>0.8912625000000018</v>
+        <v>1.276708738663419</v>
       </c>
       <c r="K11">
-        <v>0.03584999999999995</v>
+        <v>1.054793865641898</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6492028294480127</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.406265451253938</v>
       </c>
       <c r="N11">
-        <v>3.828062500000006</v>
+        <v>0.5037137293567874</v>
       </c>
       <c r="O11">
-        <v>1.916531250000003</v>
+        <v>0.8925155732564909</v>
       </c>
       <c r="P11">
-        <v>1.373860937500002</v>
+        <v>0.9217095314388237</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4228813996031968</v>
+        <v>1.38376833013707</v>
       </c>
       <c r="D12">
-        <v>0.428524917555197</v>
+        <v>0.09251911989488816</v>
       </c>
       <c r="E12">
-        <v>4.727936168243192</v>
+        <v>0.9126718756982911</v>
       </c>
       <c r="F12">
-        <v>0.4071820177408021</v>
+        <v>1.159887080422128</v>
       </c>
       <c r="G12">
-        <v>0.4228813996031968</v>
+        <v>1.38376833013707</v>
       </c>
       <c r="H12">
-        <v>0.428524917555197</v>
+        <v>0.09251911989488816</v>
       </c>
       <c r="I12">
-        <v>1.810683299020801</v>
+        <v>0.8229554305596779</v>
       </c>
       <c r="J12">
-        <v>0.9462085196800004</v>
+        <v>1.280615927297058</v>
       </c>
       <c r="K12">
-        <v>0.4373327578112015</v>
+        <v>1.055259884002806</v>
       </c>
       <c r="L12">
-        <v>0.4111153276928</v>
+        <v>0.651096048931593</v>
       </c>
       <c r="M12">
-        <v>0.4229070284799968</v>
+        <v>1.38376833013707</v>
       </c>
       <c r="N12">
-        <v>2.578230542899194</v>
+        <v>0.5025954977965896</v>
       </c>
       <c r="O12">
-        <v>1.496631125785597</v>
+        <v>0.8872116015380944</v>
       </c>
       <c r="P12">
-        <v>1.198983050918399</v>
+        <v>0.9198467121179391</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.010127284223263</v>
+        <v>1.403056472725851</v>
       </c>
       <c r="D13">
-        <v>1.006881331918</v>
+        <v>0.09232278934332443</v>
       </c>
       <c r="E13">
-        <v>0.9864321734210058</v>
+        <v>0.9097618745324261</v>
       </c>
       <c r="F13">
-        <v>0.9844116600315139</v>
+        <v>1.157611287287294</v>
       </c>
       <c r="G13">
-        <v>1.010127284223263</v>
+        <v>1.403056472725851</v>
       </c>
       <c r="H13">
-        <v>1.006881331918</v>
+        <v>0.09232278934332443</v>
       </c>
       <c r="I13">
-        <v>0.9897166144504399</v>
+        <v>0.8218383102818427</v>
       </c>
       <c r="J13">
-        <v>0.9906846957101368</v>
+        <v>1.278044054420114</v>
       </c>
       <c r="K13">
-        <v>0.986854133907504</v>
+        <v>1.05507146685958</v>
       </c>
       <c r="L13">
-        <v>0.988719404247315</v>
+        <v>0.6497640817243933</v>
       </c>
       <c r="M13">
-        <v>1.010128672423575</v>
+        <v>1.403056472725851</v>
       </c>
       <c r="N13">
-        <v>0.9966567526695028</v>
+        <v>0.5010423319378753</v>
       </c>
       <c r="O13">
-        <v>0.9969631123984457</v>
+        <v>0.8906881059722239</v>
       </c>
       <c r="P13">
-        <v>0.9929784122386474</v>
+        <v>0.9209337921468531</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6875301861625185</v>
+        <v>0.009159999999999956</v>
       </c>
       <c r="D14">
-        <v>0.810245093685503</v>
+        <v>0.06573600000000011</v>
       </c>
       <c r="E14">
-        <v>1.218217035534891</v>
+        <v>4.645183999999989</v>
       </c>
       <c r="F14">
-        <v>1.12651266236365</v>
+        <v>0.7127800000000021</v>
       </c>
       <c r="G14">
-        <v>0.6875301861625185</v>
+        <v>0.009159999999999956</v>
       </c>
       <c r="H14">
-        <v>0.810245093685503</v>
+        <v>0.06573600000000011</v>
       </c>
       <c r="I14">
-        <v>0.962077573426891</v>
+        <v>1.586959999999998</v>
       </c>
       <c r="J14">
-        <v>0.9932136303389241</v>
+        <v>1.310192000000003</v>
       </c>
       <c r="K14">
-        <v>1.060436882988555</v>
+        <v>0.4104959999999994</v>
       </c>
       <c r="L14">
-        <v>0.9868716132287834</v>
+        <v>0.4427840000000011</v>
       </c>
       <c r="M14">
-        <v>0.6875301861625185</v>
+        <v>0.009159999999999956</v>
       </c>
       <c r="N14">
-        <v>1.014231064610197</v>
+        <v>2.355459999999995</v>
       </c>
       <c r="O14">
-        <v>0.9606262444366406</v>
+        <v>1.358214999999998</v>
       </c>
       <c r="P14">
-        <v>0.9806380847162146</v>
+        <v>1.147911499999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9926850836892759</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.254209534058356</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.038899482278588</v>
+        <v>7.656125000000013</v>
       </c>
       <c r="F15">
-        <v>0.9290318264355135</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
-        <v>0.9926850836892759</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1.254209534058356</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9777496267929062</v>
+        <v>2.397650000000005</v>
       </c>
       <c r="J15">
-        <v>0.9673104940917976</v>
+        <v>0.8912625000000018</v>
       </c>
       <c r="K15">
-        <v>0.9261600377335841</v>
+        <v>0.03584999999999995</v>
       </c>
       <c r="L15">
-        <v>1.068739909352108</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9927525055033046</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.146554508168472</v>
+        <v>3.828062500000006</v>
       </c>
       <c r="O15">
-        <v>1.053706481615433</v>
+        <v>1.916531250000003</v>
       </c>
       <c r="P15">
-        <v>1.019348249304016</v>
+        <v>1.373860937500002</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.91528448868924</v>
+        <v>0.4228813996031968</v>
       </c>
       <c r="D16">
-        <v>1.130738473172443</v>
+        <v>0.428524917555197</v>
       </c>
       <c r="E16">
-        <v>1.183960349202367</v>
+        <v>4.727936168243192</v>
       </c>
       <c r="F16">
-        <v>0.9949748176569884</v>
+        <v>0.4071820177408021</v>
       </c>
       <c r="G16">
-        <v>1.91528448868924</v>
+        <v>0.4228813996031968</v>
       </c>
       <c r="H16">
-        <v>1.130738473172443</v>
+        <v>0.428524917555197</v>
       </c>
       <c r="I16">
-        <v>0.9930788932318985</v>
+        <v>1.810683299020801</v>
       </c>
       <c r="J16">
-        <v>0.6005972044409383</v>
+        <v>0.9462085196800004</v>
       </c>
       <c r="K16">
-        <v>1.17902922840198</v>
+        <v>0.4373327578112015</v>
       </c>
       <c r="L16">
-        <v>0.9894688374312056</v>
+        <v>0.4111153276928</v>
       </c>
       <c r="M16">
-        <v>1.91528448868924</v>
+        <v>0.4229070284799968</v>
       </c>
       <c r="N16">
-        <v>1.157349411187405</v>
+        <v>2.578230542899194</v>
       </c>
       <c r="O16">
-        <v>1.30623953218026</v>
+        <v>1.496631125785597</v>
       </c>
       <c r="P16">
-        <v>1.123391536528383</v>
+        <v>1.198983050918399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.010127284223264</v>
+      </c>
+      <c r="D17">
+        <v>1.006881331918</v>
+      </c>
+      <c r="E17">
+        <v>0.9864321734210058</v>
+      </c>
+      <c r="F17">
+        <v>0.9844116600315139</v>
+      </c>
+      <c r="G17">
+        <v>1.010127284223264</v>
+      </c>
+      <c r="H17">
+        <v>1.006881331918</v>
+      </c>
+      <c r="I17">
+        <v>0.9897166144504399</v>
+      </c>
+      <c r="J17">
+        <v>0.9906846957101368</v>
+      </c>
+      <c r="K17">
+        <v>0.986854133907504</v>
+      </c>
+      <c r="L17">
+        <v>0.988719404247315</v>
+      </c>
+      <c r="M17">
+        <v>1.010128672423575</v>
+      </c>
+      <c r="N17">
+        <v>0.9966567526695027</v>
+      </c>
+      <c r="O17">
+        <v>0.9969631123984457</v>
+      </c>
+      <c r="P17">
+        <v>0.9929784122386474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.6875301861625185</v>
+      </c>
+      <c r="D18">
+        <v>0.810245093685503</v>
+      </c>
+      <c r="E18">
+        <v>1.218217035534891</v>
+      </c>
+      <c r="F18">
+        <v>1.12651266236365</v>
+      </c>
+      <c r="G18">
+        <v>0.6875301861625185</v>
+      </c>
+      <c r="H18">
+        <v>0.810245093685503</v>
+      </c>
+      <c r="I18">
+        <v>0.962077573426891</v>
+      </c>
+      <c r="J18">
+        <v>0.9932136303389241</v>
+      </c>
+      <c r="K18">
+        <v>1.060436882988555</v>
+      </c>
+      <c r="L18">
+        <v>0.9868716132287834</v>
+      </c>
+      <c r="M18">
+        <v>0.6875301861625185</v>
+      </c>
+      <c r="N18">
+        <v>1.014231064610197</v>
+      </c>
+      <c r="O18">
+        <v>0.9606262444366406</v>
+      </c>
+      <c r="P18">
+        <v>0.9806380847162146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9926850836892759</v>
+      </c>
+      <c r="D19">
+        <v>1.254209534058356</v>
+      </c>
+      <c r="E19">
+        <v>1.038899482278588</v>
+      </c>
+      <c r="F19">
+        <v>0.9290318264355135</v>
+      </c>
+      <c r="G19">
+        <v>0.9926850836892759</v>
+      </c>
+      <c r="H19">
+        <v>1.254209534058356</v>
+      </c>
+      <c r="I19">
+        <v>0.9777496267929062</v>
+      </c>
+      <c r="J19">
+        <v>0.9673104940917976</v>
+      </c>
+      <c r="K19">
+        <v>0.9261600377335842</v>
+      </c>
+      <c r="L19">
+        <v>1.068739909352108</v>
+      </c>
+      <c r="M19">
+        <v>0.9927525055033046</v>
+      </c>
+      <c r="N19">
+        <v>1.146554508168472</v>
+      </c>
+      <c r="O19">
+        <v>1.053706481615433</v>
+      </c>
+      <c r="P19">
+        <v>1.019348249304016</v>
       </c>
     </row>
   </sheetData>
